--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,76 +5,77 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="conns" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="X1_24V_5pin_BCZ" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="X2_48_DC_1778065" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="X8_IO_22pin_B2CF" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="X10_CAN_4pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="LEDsigAx12" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="X5_FBE_12pin_B2CF" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="X6_FB1_8pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="X7_FB2_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="X3_M1_6pin_BLZP" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="X4_M2_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="X1_24V_5pin_Microlock" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="X3_DCbus_2pin_pressfit" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="X3_M1_3pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="X4_BR_4pin_Microlock" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="X3_M1_4pin_wago_2626" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="X4_M2_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="XBR_BR_6pin_BLF" sheetId="20" state="visible" r:id="rId22"/>
-    <sheet name="X1_24V_5pin_Microfit" sheetId="21" state="visible" r:id="rId23"/>
-    <sheet name="P7_BR_4pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
-    <sheet name="P8_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
-    <sheet name="P3_Term_2pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
-    <sheet name="X4_M1_6pin_SLS" sheetId="25" state="visible" r:id="rId27"/>
-    <sheet name="X2_PWR_10pin_BLZP" sheetId="26" state="visible" r:id="rId28"/>
-    <sheet name="X2_320_DC_1778078" sheetId="27" state="visible" r:id="rId29"/>
-    <sheet name="X4_M1_6pin_BLF" sheetId="28" state="visible" r:id="rId30"/>
-    <sheet name="X2_PWR_12pin_BLZ" sheetId="29" state="visible" r:id="rId31"/>
-    <sheet name="X2_D560DCbus" sheetId="30" state="visible" r:id="rId32"/>
-    <sheet name="X3_M1_4pin_wago_2636" sheetId="31" state="visible" r:id="rId33"/>
-    <sheet name="X4_M2_4pin_wago_2636" sheetId="32" state="visible" r:id="rId34"/>
-    <sheet name="X14_BR1_4pin_LSF" sheetId="33" state="visible" r:id="rId35"/>
-    <sheet name="X15_BR2_4pin_LSF" sheetId="34" state="visible" r:id="rId36"/>
-    <sheet name="X1_ACIN_PC5" sheetId="35" state="visible" r:id="rId37"/>
-    <sheet name="X2_DC_8pin_PC5" sheetId="36" state="visible" r:id="rId38"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X3_24V_BLF_2_5" sheetId="38" state="visible" r:id="rId40"/>
-    <sheet name="X5_DI_10pin_B2CF" sheetId="39" state="visible" r:id="rId41"/>
-    <sheet name="X10_DO_10pin_B2CF" sheetId="40" state="visible" r:id="rId42"/>
-    <sheet name="S1_SWITCH_CAN" sheetId="41" state="visible" r:id="rId43"/>
-    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="42" state="visible" r:id="rId44"/>
-    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="43" state="visible" r:id="rId45"/>
-    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="44" state="visible" r:id="rId46"/>
-    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="45" state="visible" r:id="rId47"/>
-    <sheet name="X4_FBE_12pin_ClikMate" sheetId="46" state="visible" r:id="rId48"/>
-    <sheet name="X5_FB1_10pin_ClikMate" sheetId="47" state="visible" r:id="rId49"/>
-    <sheet name="X6_FB2_10pin_ClikMate" sheetId="48" state="visible" r:id="rId50"/>
-    <sheet name="X7_AIN_12pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
-    <sheet name="X8_DIO_18pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
-    <sheet name="X10_CAN_8pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
-    <sheet name="X11_FB3_10pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
-    <sheet name="X12_UDP_8pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="57" state="visible" r:id="rId59"/>
-    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="58" state="visible" r:id="rId60"/>
-    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="59" state="visible" r:id="rId61"/>
-    <sheet name="S1_TGS560_DIP" sheetId="60" state="visible" r:id="rId62"/>
-    <sheet name="LED_TGS560" sheetId="61" state="visible" r:id="rId63"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_24V_5pin_BCZ_D4850" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="X2_48_DC_1778065" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="X8_IO_22pin_B2CF" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="X10_CAN_4pin_B2CF" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="LEDsigAx12" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="X5_FBE_12pin_B2CF" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="X6_FB1_8pin_B2CF" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="X7_FB2_8pin_B2CF" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="X3_M1_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="X4_M2_6pin_BLZP" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="X1_24V_5pin_Microlock" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="X3_DCbus_2pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="X3_M1_3pin_pressfit" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="X4_BR_4pin_Microlock" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="X2_DCbus_3pin_wago_2636" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="X3_M1_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="X4_M2_4pin_wago_2626" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="XBR_BR_6pin_BLF" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="X1_24V_5pin_Microfit" sheetId="22" state="visible" r:id="rId24"/>
+    <sheet name="P7_BR_4pin_Microfit" sheetId="23" state="visible" r:id="rId25"/>
+    <sheet name="P8_BR_4pin_Microfit" sheetId="24" state="visible" r:id="rId26"/>
+    <sheet name="P3_Term_2pin_Microfit" sheetId="25" state="visible" r:id="rId27"/>
+    <sheet name="X4_M1_6pin_SLS" sheetId="26" state="visible" r:id="rId28"/>
+    <sheet name="X2_PWR_10pin_BLZP" sheetId="27" state="visible" r:id="rId29"/>
+    <sheet name="X2_320_DC_1778078" sheetId="28" state="visible" r:id="rId30"/>
+    <sheet name="X4_M1_6pin_BLF" sheetId="29" state="visible" r:id="rId31"/>
+    <sheet name="X2_PWR_12pin_BLZ" sheetId="30" state="visible" r:id="rId32"/>
+    <sheet name="X2_D560DCbus" sheetId="31" state="visible" r:id="rId33"/>
+    <sheet name="X3_M1_4pin_wago_2636" sheetId="32" state="visible" r:id="rId34"/>
+    <sheet name="X4_M2_4pin_wago_2636" sheetId="33" state="visible" r:id="rId35"/>
+    <sheet name="X14_BR1_4pin_LSF" sheetId="34" state="visible" r:id="rId36"/>
+    <sheet name="X15_BR2_4pin_LSF" sheetId="35" state="visible" r:id="rId37"/>
+    <sheet name="X1_ACIN_PC5" sheetId="36" state="visible" r:id="rId38"/>
+    <sheet name="X2_DC_8pin_PC5" sheetId="37" state="visible" r:id="rId39"/>
+    <sheet name="X3_DO_4pin_BCZ" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X3_24V_BLF_2_5" sheetId="39" state="visible" r:id="rId41"/>
+    <sheet name="X5_DI_10pin_B2CF" sheetId="40" state="visible" r:id="rId42"/>
+    <sheet name="X10_DO_10pin_B2CF" sheetId="41" state="visible" r:id="rId43"/>
+    <sheet name="S1_SWITCH_CAN" sheetId="42" state="visible" r:id="rId44"/>
+    <sheet name="X1_24V_5pin_BCZ_TGM" sheetId="43" state="visible" r:id="rId45"/>
+    <sheet name="X5_FBE_12pin_B2CF_TGM" sheetId="44" state="visible" r:id="rId46"/>
+    <sheet name="X6_FB1_8pin_B2CF_TGM" sheetId="45" state="visible" r:id="rId47"/>
+    <sheet name="X7_FB2_8pin_B2CF_TGM" sheetId="46" state="visible" r:id="rId48"/>
+    <sheet name="X4_FBE_12pin_ClikMate" sheetId="47" state="visible" r:id="rId49"/>
+    <sheet name="X5_FB1_10pin_ClikMate" sheetId="48" state="visible" r:id="rId50"/>
+    <sheet name="X6_FB2_10pin_ClikMate" sheetId="49" state="visible" r:id="rId51"/>
+    <sheet name="X7_AIN_12pin_ClikMate" sheetId="50" state="visible" r:id="rId52"/>
+    <sheet name="X8_DIO_18pin_ClikMate" sheetId="51" state="visible" r:id="rId53"/>
+    <sheet name="X10_CAN_8pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
+    <sheet name="X11_FB3_10pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
+    <sheet name="X12_UDP_8pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
+    <sheet name="X2_ACIN_7pin_2636" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X6_TGS560_50_DCbus" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="58" state="visible" r:id="rId60"/>
+    <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="59" state="visible" r:id="rId61"/>
+    <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="60" state="visible" r:id="rId62"/>
+    <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
+    <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
+    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId67"/>
+    <externalReference r:id="rId68"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="531">
   <si>
     <t xml:space="preserve">This is a workbook with source tables of TGZ/TGS connector descriptions in English. Each sheet corresponds to one unique connector type. Since connectors are often repeated within TGZ (typically those on the control board), they are only listed once. I.e. E.g. IO connector 22pin weidmuller B2CF is used over and over again, so it is only listed here once as "X8_IO_22pin_B2CF"</t>
   </si>
@@ -526,6 +527,12 @@
     <t xml:space="preserve">GND (0 V)</t>
   </si>
   <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No connect</t>
+  </si>
+  <si>
     <t xml:space="preserve">+DC</t>
   </si>
   <si>
@@ -677,9 +684,6 @@
   </si>
   <si>
     <t xml:space="preserve">CAN isolated ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
   </si>
   <si>
     <t xml:space="preserve">No connection</t>
@@ -948,9 +952,6 @@
   </si>
   <si>
     <t xml:space="preserve">- Static brake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No connect</t>
   </si>
   <si>
     <t xml:space="preserve">0V control supply voltage</t>
@@ -2968,7 +2969,7 @@
       <selection pane="topLeft" activeCell="F183" activeCellId="0" sqref="F183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.95"/>
@@ -8231,10 +8232,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8246,13 +8247,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8260,13 +8261,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,13 +8275,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8288,13 +8289,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,13 +8303,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8316,13 +8317,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8330,13 +8331,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,7 +8348,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>144</v>
@@ -8358,13 +8359,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,10 +8390,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8404,13 +8405,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8432,13 +8433,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8446,13 +8447,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,13 +8461,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,13 +8475,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8488,13 +8489,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,7 +8551,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8548,13 +8577,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,13 +8591,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8576,13 +8605,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,13 +8619,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8604,13 +8633,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8618,13 +8647,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,17 +8675,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8678,13 +8707,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8692,13 +8721,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,13 +8735,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,13 +8749,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8734,19 +8763,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8759,17 +8805,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8783,7 +8829,7 @@
         <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8791,13 +8837,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8805,22 +8851,61 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -8836,10 +8921,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -8857,49 +8942,35 @@
         <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8921,18 +8992,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8946,69 +9016,58 @@
         <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -9021,17 +9080,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,13 +9113,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9067,13 +9127,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9081,22 +9141,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -9115,7 +9186,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -9141,10 +9212,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>254</v>
@@ -9155,10 +9226,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>254</v>
@@ -9169,26 +9240,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9217,7 +9274,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -9243,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,13 +9314,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9271,13 +9328,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,13 +9342,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,7 +9376,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.05"/>
@@ -12314,13 +12371,13 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -12342,14 +12399,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,13 +12414,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12371,13 +12428,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,41 +12442,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12441,18 +12470,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,14 +12501,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+      <c r="B2" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,13 +12516,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12502,13 +12530,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12516,33 +12544,50 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>138</v>
+      <c r="B6" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -12555,17 +12600,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
@@ -12591,10 +12636,10 @@
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12602,13 +12647,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12616,13 +12661,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12630,19 +12675,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
@@ -12658,10 +12717,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -12688,13 +12747,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12702,13 +12761,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12716,13 +12775,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,13 +12789,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -12755,13 +12814,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
@@ -12788,13 +12847,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12802,13 +12861,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -12827,17 +12914,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12859,13 +12947,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12873,73 +12961,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12963,165 +12992,109 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>280</v>
+      <c r="D3" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>280</v>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>280</v>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>280</v>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>280</v>
+      <c r="B7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13143,72 +13116,175 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="B2" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="B11" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13226,17 +13302,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13258,13 +13332,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13272,13 +13346,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13286,59 +13360,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13356,16 +13385,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -13388,13 +13417,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13402,13 +13431,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13416,13 +13445,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13430,13 +13459,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13444,13 +13473,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13458,98 +13487,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13573,7 +13521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
@@ -13683,10 +13631,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -13712,13 +13660,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13726,44 +13674,154 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13781,16 +13839,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
@@ -13813,13 +13871,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13827,45 +13885,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>320</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13886,10 +13943,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -13915,13 +13972,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,13 +13986,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13943,13 +14000,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13957,13 +14014,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13988,10 +14045,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -14017,13 +14074,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14031,13 +14088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14045,13 +14102,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14059,13 +14116,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14093,7 +14150,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -14119,10 +14176,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>321</v>
@@ -14133,10 +14190,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>321</v>
@@ -14189,15 +14246,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14219,13 +14278,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>10</v>
+        <v>230</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14233,13 +14292,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14247,14 +14306,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>10</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14272,17 +14348,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14304,10 +14378,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
@@ -14318,10 +14392,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>10</v>
@@ -14332,96 +14406,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14439,18 +14431,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14472,13 +14463,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>335</v>
+        <v>290</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14486,13 +14477,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>335</v>
+        <v>292</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14500,13 +14491,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>335</v>
+        <v>253</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14514,14 +14505,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14545,11 +14604,11 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
@@ -14572,13 +14631,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,13 +14645,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14600,13 +14659,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,13 +14673,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -14639,17 +14698,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14662,16 +14722,22 @@
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>343</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14679,10 +14745,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>343</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14690,10 +14759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>346</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14701,86 +14773,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+        <v>346</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14798,13 +14798,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14825,13 +14830,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,13 +14844,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -14867,13 +14914,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -14893,10 +14940,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14904,10 +14951,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14915,10 +14962,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14926,10 +14973,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14937,10 +14984,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14948,10 +14995,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14959,10 +15006,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14970,10 +15017,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14981,10 +15028,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14992,10 +15039,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15026,10 +15073,10 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
@@ -15038,60 +15085,124 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>372</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>375</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -15118,102 +15229,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15231,16 +15324,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15248,7 +15342,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15256,7 +15356,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>378</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15264,7 +15370,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>380</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15272,7 +15384,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15280,7 +15398,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15288,63 +15412,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>226</v>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -15363,17 +15437,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15381,10 +15454,7 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15392,10 +15462,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15403,10 +15470,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15414,10 +15478,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15425,10 +15486,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15436,10 +15494,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,10 +15502,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15458,10 +15510,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15469,14 +15518,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15497,13 +15572,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -15515,7 +15590,7 @@
         <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15523,10 +15598,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15534,10 +15609,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15545,10 +15620,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15556,10 +15631,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15567,10 +15642,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15578,10 +15653,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15589,10 +15664,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15603,11 +15678,11 @@
         <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15625,18 +15700,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15644,16 +15718,10 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15661,16 +15729,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15678,16 +15740,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15695,16 +15751,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15712,16 +15762,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>387</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>388</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15729,16 +15773,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>386</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15746,16 +15784,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>388</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15763,16 +15795,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15780,88 +15806,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15879,13 +15831,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -15898,13 +15850,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>384</v>
@@ -15915,16 +15867,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15935,13 +15887,13 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15955,7 +15907,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>386</v>
@@ -15972,7 +15924,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>388</v>
@@ -15986,10 +15938,10 @@
         <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>386</v>
@@ -16003,10 +15955,10 @@
         <v>390</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>388</v>
@@ -16020,7 +15972,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
@@ -16037,7 +15989,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>63</v>
@@ -16051,16 +16003,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16068,20 +16020,54 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16102,10 +16088,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -16118,13 +16104,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>384</v>
@@ -16135,16 +16121,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16155,7 +16141,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
@@ -16175,7 +16161,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>386</v>
@@ -16192,7 +16178,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>388</v>
@@ -16206,10 +16192,10 @@
         <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>386</v>
@@ -16223,10 +16209,10 @@
         <v>390</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>388</v>
@@ -16240,7 +16226,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
@@ -16257,7 +16243,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>63</v>
@@ -16271,16 +16257,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16319,17 +16305,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16337,10 +16324,16 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16348,10 +16341,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>394</v>
+        <v>228</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16359,10 +16358,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>395</v>
+        <v>226</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16370,10 +16375,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16381,10 +16392,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16392,10 +16409,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>400</v>
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16403,10 +16426,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>400</v>
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16414,10 +16443,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>402</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>403</v>
+        <v>217</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16425,10 +16460,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>404</v>
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16436,10 +16477,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>403</v>
+        <v>210</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16447,32 +16494,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16494,17 +16525,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16525,13 +16552,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16544,288 +16571,8 @@
       <c r="C3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -16844,16 +16591,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -16873,10 +16620,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16884,10 +16631,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16895,10 +16642,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16906,10 +16653,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>398</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16917,10 +16664,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>399</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16928,10 +16675,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16939,10 +16686,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16953,7 +16700,7 @@
         <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16961,10 +16708,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16972,10 +16719,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>415</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16983,10 +16730,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16994,77 +16741,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17082,16 +16766,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -17111,10 +16795,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>425</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17122,10 +16806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17133,10 +16817,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>429</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17144,10 +16828,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17155,10 +16839,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17166,10 +16850,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17177,10 +16861,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>431</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17188,10 +16872,120 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>433</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>434</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -17210,16 +17004,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -17239,10 +17033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17250,10 +17044,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17261,10 +17055,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17272,10 +17066,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17283,10 +17077,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17294,10 +17088,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>427</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17305,10 +17099,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17316,42 +17110,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
+        <v>434</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17372,13 +17135,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -17398,10 +17161,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17409,10 +17172,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17420,10 +17183,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17431,10 +17194,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17442,10 +17205,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17453,10 +17216,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17464,10 +17227,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17475,17 +17238,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
@@ -17512,17 +17291,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17535,22 +17314,16 @@
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17558,13 +17331,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17572,13 +17342,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17586,13 +17353,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17600,13 +17364,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>456</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17614,13 +17375,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>458</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17628,17 +17386,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>460</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
@@ -17651,6 +17414,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17671,10 +17437,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -17700,13 +17466,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>468</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>318</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17714,29 +17480,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>318</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
@@ -17769,18 +17590,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17802,13 +17622,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>474</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17816,56 +17636,44 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>474</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17883,15 +17691,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17913,13 +17724,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>472</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17927,13 +17738,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17941,13 +17752,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -17966,17 +17805,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17998,10 +17835,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>479</v>
@@ -18012,10 +17849,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>479</v>
@@ -18026,59 +17863,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>478</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18099,10 +17891,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -18128,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>480</v>
@@ -18142,7 +17934,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>481</v>
@@ -18156,10 +17948,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>479</v>
@@ -18170,10 +17962,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>479</v>
@@ -18184,10 +17976,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>479</v>
@@ -18198,10 +17990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>479</v>
@@ -18226,16 +18018,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18257,13 +18049,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18271,13 +18063,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18285,13 +18077,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18299,13 +18091,265 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -18324,243 +18368,119 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>482</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>483</v>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>484</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>486</v>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>487</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>489</v>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>491</v>
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>492</v>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>493</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>494</v>
+        <v>237</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>495</v>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
+        <v>240</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="C18" s="10"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18578,26 +18498,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
@@ -18605,177 +18525,216 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>483</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>486</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>3</v>
+        <v>489</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>492</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>499</v>
+      <c r="A8" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>499</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>520</v>
+      <c r="A10" s="13" t="s">
+        <v>491</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>522</v>
+      <c r="A12" s="13" t="s">
+        <v>488</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
+        <v>499</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>520</v>
+      <c r="A13" s="13" t="s">
+        <v>501</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="13"/>
+        <v>499</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>524</v>
+      <c r="A14" s="13" t="s">
+        <v>502</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
+        <v>499</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="14"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="14"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="14"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18793,103 +18752,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>511</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18910,10 +18970,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -18939,10 +18999,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>526</v>
@@ -18953,10 +19013,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>528</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>526</v>
@@ -18967,10 +19027,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>467</v>
+        <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>526</v>
@@ -18981,42 +19041,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>527</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>526</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>526</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
@@ -19046,10 +19084,146 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.79"/>
@@ -19146,39 +19320,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>204</v>
+      <c r="D5" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -19197,203 +19418,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19417,7 +19475,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
@@ -19429,13 +19487,13 @@
         <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19443,13 +19501,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19457,13 +19515,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19471,13 +19529,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19485,13 +19543,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19499,13 +19557,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19513,13 +19571,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19527,13 +19585,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19541,13 +19599,69 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>226</v>
+      <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="66"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -73,9 +73,11 @@
     <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
     <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
     <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
+    <sheet name="X0a_48-100-xyz" sheetId="66" state="visible" r:id="rId68"/>
+    <sheet name="X0b_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId68"/>
+    <externalReference r:id="rId70"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -87,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="545">
   <si>
     <t xml:space="preserve">This is a workbook with source tables of TGZ/TGS connector descriptions in English. Each sheet corresponds to one unique connector type. Since connectors are often repeated within TGZ (typically those on the control board), they are only listed once. I.e. E.g. IO connector 22pin weidmuller B2CF is used over and over again, so it is only listed here once as "X8_IO_22pin_B2CF"</t>
   </si>
@@ -1717,6 +1719,48 @@
   </si>
   <si>
     <t xml:space="preserve">Brake resistor select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor phase U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 ~ 1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor phase V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor phase W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+DC bus input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-DC bus input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static brake GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 ~ 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static brake +24V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static brake – terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static brake + terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 V control supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External P1000</t>
   </si>
 </sst>
 </file>
@@ -1962,6 +2006,7 @@
       <sheetName val="rozcestnik"/>
       <sheetName val="conns"/>
       <sheetName val="X1_24V_5pin_BCZ"/>
+      <sheetName val="X1_24V_5pin_BCZ_D4850"/>
       <sheetName val="X2_48_DC_1778065"/>
       <sheetName val="X8_IO_22pin_B2CF"/>
       <sheetName val="X10_CAN_4pin_B2CF"/>
@@ -2847,6 +2892,7 @@
       <sheetData sheetId="61"/>
       <sheetData sheetId="62"/>
       <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12989,7 +13035,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13518,7 +13564,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14800,7 +14846,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -17694,7 +17740,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17808,7 +17854,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17891,7 +17937,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19315,6 +19361,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.93"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+      <c r="C25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="56"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -62,16 +62,16 @@
     <sheet name="X10_CAN_8pin_ClikMate" sheetId="52" state="visible" r:id="rId54"/>
     <sheet name="X11_FB3_10pin_ClikMate" sheetId="53" state="visible" r:id="rId55"/>
     <sheet name="X12_UDP_8pin_ClikMate" sheetId="54" state="visible" r:id="rId56"/>
-    <sheet name="X2_ACIN_7pin_2636" sheetId="55" state="visible" r:id="rId57"/>
-    <sheet name="X6_TGS560_50_DCbus" sheetId="56" state="visible" r:id="rId58"/>
-    <sheet name="X4_TGS560_24V_5pin_BCZ" sheetId="57" state="visible" r:id="rId59"/>
+    <sheet name="X1_ACIN_7pin_2636" sheetId="55" state="visible" r:id="rId57"/>
+    <sheet name="X4_TGS560_50_DCbus" sheetId="56" state="visible" r:id="rId58"/>
+    <sheet name="X3_TGS560_24V_5pin_BCZ" sheetId="57" state="visible" r:id="rId59"/>
     <sheet name="X2_560_DC_3pin_BLZ__7_62" sheetId="58" state="visible" r:id="rId60"/>
     <sheet name="X3_M1_6pin_BLZ__7_62" sheetId="59" state="visible" r:id="rId61"/>
     <sheet name="X4_M2_6pin_BLZ__7_62" sheetId="60" state="visible" r:id="rId62"/>
     <sheet name="S1_TGS560_DIP" sheetId="61" state="visible" r:id="rId63"/>
     <sheet name="LED_TGS560" sheetId="62" state="visible" r:id="rId64"/>
-    <sheet name="X4_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
-    <sheet name="X1_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
+    <sheet name="X1_ACIN_4pin_TGS560_25" sheetId="63" state="visible" r:id="rId65"/>
+    <sheet name="X4_DC_6pin_TGS560_25" sheetId="64" state="visible" r:id="rId66"/>
     <sheet name="X5_RBR_3pin_TGS560_25" sheetId="65" state="visible" r:id="rId67"/>
     <sheet name="X0a_48-100-xyz" sheetId="66" state="visible" r:id="rId68"/>
     <sheet name="X0b_48-100-xyz" sheetId="67" state="visible" r:id="rId69"/>
@@ -3060,8 +3060,8 @@
   </sheetPr>
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J170" activeCellId="0" sqref="J170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I191" activeCellId="0" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14237,7 +14237,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -18370,7 +18370,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18626,7 +18626,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="56"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -45,7 +45,7 @@
     <sheet name="X15_BR2_4pin_LSF" sheetId="35" state="visible" r:id="rId37"/>
     <sheet name="X1_ACIN_PC5" sheetId="36" state="visible" r:id="rId38"/>
     <sheet name="X2_DC_8pin_PC5" sheetId="37" state="visible" r:id="rId39"/>
-    <sheet name="X3_DO_4pin_BCZ" sheetId="38" state="visible" r:id="rId40"/>
+    <sheet name="X2_DO_4pin_BCZ" sheetId="38" state="visible" r:id="rId40"/>
     <sheet name="X3_24V_BLF_2_5" sheetId="39" state="visible" r:id="rId41"/>
     <sheet name="X5_DI_10pin_B2CF" sheetId="40" state="visible" r:id="rId42"/>
     <sheet name="X10_DO_10pin_B2CF" sheetId="41" state="visible" r:id="rId43"/>
@@ -2077,13 +2077,13 @@
       <sheetName val="X10_CAN_8pin_ClikMate"/>
       <sheetName val="X11_FB3_10pin_ClikMate"/>
       <sheetName val="X12_UDP_8pin_ClikMate"/>
-      <sheetName val="X2_ACIN_7pin_2636"/>
-      <sheetName val="X6_TGS560_50_DCbus"/>
-      <sheetName val="X4_TGS560_24V_5pin_BCZ"/>
+      <sheetName val="X1_ACIN_7pin_2636"/>
+      <sheetName val="X4_TGS560_50_DCbus"/>
+      <sheetName val="X3_TGS560_24V_5pin_BCZ"/>
       <sheetName val="S1_TGS560_DIP"/>
       <sheetName val="LED_TGS560"/>
-      <sheetName val="X4_ACIN_4pin_TGS560_25"/>
-      <sheetName val="X1_DC_6pin_TGS560_25"/>
+      <sheetName val="X1_ACIN_4pin_TGS560_25"/>
+      <sheetName val="X4_DC_6pin_TGS560_25"/>
       <sheetName val="X5_RBR_3pin_TGS560_25"/>
       <sheetName val="X0a_48-100-xyz"/>
       <sheetName val="X0b_48-100-xyz"/>
@@ -15533,8 +15533,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18626,7 +18626,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="50"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="583">
   <si>
     <t xml:space="preserve">This is a workbook with source tables of TGZ/TGS connector descriptions in English. Each sheet corresponds to one unique connector type. Since connectors are often repeated within TGZ (typically those on the control board), they are only listed once. I.e. E.g. IO connector 22pin weidmuller B2CF is used over and over again, so it is only listed here once as "X8_IO_22pin_B2CF"</t>
   </si>
@@ -1327,6 +1327,18 @@
     <t xml:space="preserve">RxD-</t>
   </si>
   <si>
+    <t xml:space="preserve">Hengstler Acuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hengstler ACURO link</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIN</t>
   </si>
   <si>
@@ -1828,37 +1840,37 @@
     <t xml:space="preserve">External P1000</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC+</t>
+    <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">Resolver excitation +</t>
   </si>
   <si>
-    <t xml:space="preserve">EXC-</t>
+    <t xml:space="preserve">R1</t>
   </si>
   <si>
     <t xml:space="preserve">Resolver excitation -</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN+</t>
+    <t xml:space="preserve">S1</t>
   </si>
   <si>
     <t xml:space="preserve">SIN + resolver output</t>
   </si>
   <si>
-    <t xml:space="preserve">SIN-</t>
+    <t xml:space="preserve">S3</t>
   </si>
   <si>
     <t xml:space="preserve">SIN - resolver output</t>
   </si>
   <si>
-    <t xml:space="preserve">COS+</t>
+    <t xml:space="preserve">S2</t>
   </si>
   <si>
     <t xml:space="preserve">COS + resolver output</t>
   </si>
   <si>
-    <t xml:space="preserve">COS-</t>
+    <t xml:space="preserve">S4</t>
   </si>
   <si>
     <t xml:space="preserve">COS - resolver output</t>
@@ -2165,6 +2177,7 @@
       <sheetName val="X5_FB1_10pin_ClikMate"/>
       <sheetName val="X6_FB2_10pin_ClikMate"/>
       <sheetName val="X7_AIN_12pin_ClikMate"/>
+      <sheetName val="X7_AIN_HALL_12pin_ClikMate"/>
       <sheetName val="X8_DIO_18pin_ClikMate"/>
       <sheetName val="X10_CAN_8pin_ClikMate"/>
       <sheetName val="X11_FB3_10pin_ClikMate"/>
@@ -3036,6 +3049,7 @@
       <sheetData sheetId="65"/>
       <sheetData sheetId="66"/>
       <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3155,7 +3169,7 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I191" activeCellId="1" sqref="D1:D13 I191"/>
+      <selection pane="topLeft" activeCell="I191" activeCellId="1" sqref="F1 I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9233,7 +9247,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9391,7 +9405,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9549,7 +9563,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9679,7 +9693,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9809,7 +9823,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="F1 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9922,7 +9936,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D1:D13 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="F1 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9996,7 +10010,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10084,7 +10098,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10184,7 +10198,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D1:D13 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="F1 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10272,7 +10286,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10374,7 +10388,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="D1:D13 B52"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="F1 B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13505,7 +13519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13607,7 +13621,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D13 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="F1 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13737,7 +13751,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13851,7 +13865,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D13 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="F1 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13951,7 +13965,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14051,7 +14065,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14123,7 +14137,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="D1:D13 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="F1 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14253,7 +14267,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14439,7 +14453,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14522,7 +14536,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14652,7 +14666,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14765,7 +14779,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="D1:D13 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="F1 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14976,7 +14990,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15077,7 +15091,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="F1 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15179,7 +15193,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="D1:D13 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="F1 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15281,7 +15295,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15383,7 +15397,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15485,7 +15499,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15568,7 +15582,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D1:D13 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="F1 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15735,7 +15749,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15835,7 +15849,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15935,7 +15949,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D1:D13 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F1 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16048,7 +16062,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="D1:D13 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="F1 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16207,7 +16221,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="D1:D13 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F1 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16366,7 +16380,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O42" activeCellId="1" sqref="D1:D13 O42"/>
+      <selection pane="topLeft" activeCell="O42" activeCellId="1" sqref="F1 O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16461,7 +16475,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16574,7 +16588,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16706,7 +16720,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="1" sqref="D1:D13 T15"/>
+      <selection pane="topLeft" activeCell="T15" activeCellId="1" sqref="F1 T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16837,7 +16851,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="D1:D13 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="F1 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16968,7 +16982,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="D1:D13 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="F1 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17219,10 +17233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="D1:D13 D20"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17249,6 +17263,9 @@
       <c r="E1" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -17266,6 +17283,9 @@
       <c r="E2" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -17283,6 +17303,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -17300,6 +17323,9 @@
       <c r="E4" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -17317,6 +17343,9 @@
       <c r="E5" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -17334,6 +17363,9 @@
       <c r="E6" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -17351,6 +17383,9 @@
       <c r="E7" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -17368,6 +17403,9 @@
       <c r="E8" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -17385,6 +17423,9 @@
       <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -17402,6 +17443,9 @@
       <c r="E10" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -17418,6 +17462,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17439,10 +17486,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="D1:D13 J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17469,6 +17516,9 @@
       <c r="E1" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
@@ -17486,6 +17536,9 @@
       <c r="E2" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -17503,6 +17556,9 @@
       <c r="E3" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -17520,6 +17576,9 @@
       <c r="E4" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -17537,6 +17596,9 @@
       <c r="E5" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -17554,6 +17616,9 @@
       <c r="E6" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -17571,6 +17636,9 @@
       <c r="E7" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -17588,6 +17656,9 @@
       <c r="E8" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -17605,6 +17676,9 @@
       <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -17622,6 +17696,9 @@
       <c r="E10" s="4" t="s">
         <v>217</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -17638,6 +17715,9 @@
       </c>
       <c r="E11" s="4" t="s">
         <v>151</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17662,7 +17742,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D13 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17728,7 +17808,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17754,10 +17834,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17768,7 +17848,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17776,10 +17856,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17787,10 +17867,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17798,10 +17878,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17809,10 +17889,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17820,10 +17900,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17834,7 +17914,7 @@
         <v>182</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17842,10 +17922,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17856,7 +17936,7 @@
         <v>182</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17864,10 +17944,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17878,7 +17958,7 @@
         <v>182</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17900,10 +17980,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17923,8 +18003,8 @@
       <c r="C1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>413</v>
+      <c r="D1" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17932,13 +18012,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>414</v>
+        <v>404</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17949,10 +18029,10 @@
         <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>415</v>
+        <v>405</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17960,13 +18040,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>416</v>
+        <v>407</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17974,13 +18054,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>415</v>
+        <v>407</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17988,13 +18068,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18002,13 +18082,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>415</v>
+        <v>410</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18016,13 +18096,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18030,13 +18110,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>415</v>
+        <v>425</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18044,13 +18124,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18058,13 +18138,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>419</v>
+        <v>429</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18072,13 +18152,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18086,41 +18166,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>419</v>
+        <v>433</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18141,7 +18197,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="D1:D13 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="F1 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18170,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18181,7 +18237,7 @@
         <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18192,7 +18248,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18203,7 +18259,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18214,7 +18270,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18225,7 +18281,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18236,7 +18292,7 @@
         <v>186</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18247,7 +18303,7 @@
         <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18255,10 +18311,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18266,10 +18322,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18277,10 +18333,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18288,10 +18344,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18302,7 +18358,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18313,7 +18369,7 @@
         <v>174</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18324,7 +18380,7 @@
         <v>172</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18335,7 +18391,7 @@
         <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18346,7 +18402,7 @@
         <v>168</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18357,7 +18413,7 @@
         <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -18379,7 +18435,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D1:D13 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="F1 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18405,10 +18461,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18416,10 +18472,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18427,10 +18483,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18438,10 +18494,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18449,10 +18505,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18460,10 +18516,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18471,10 +18527,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18482,10 +18538,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -18507,7 +18563,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="D1:D13 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="F1 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18533,10 +18589,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18544,10 +18600,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18558,7 +18614,7 @@
         <v>398</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18569,7 +18625,7 @@
         <v>397</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18577,10 +18633,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18591,7 +18647,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,10 +18655,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18610,10 +18666,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18624,7 +18680,7 @@
         <v>397</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18635,7 +18691,7 @@
         <v>398</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18666,7 +18722,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18692,10 +18748,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18703,10 +18759,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18714,10 +18770,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18725,10 +18781,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18736,10 +18792,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18747,10 +18803,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18758,10 +18814,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18769,10 +18825,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18809,7 +18865,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18841,10 +18897,10 @@
         <v>316</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18855,10 +18911,10 @@
         <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18872,7 +18928,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18886,7 +18942,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18900,7 +18956,7 @@
         <v>309</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18914,7 +18970,7 @@
         <v>311</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18925,10 +18981,10 @@
         <v>241</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18965,7 +19021,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18994,10 +19050,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>324</v>
@@ -19008,10 +19064,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>324</v>
@@ -19066,7 +19122,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="D1:D13 I24"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="F1 I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19096,13 +19152,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19110,13 +19166,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19127,10 +19183,10 @@
         <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19144,7 +19200,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19158,7 +19214,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -19180,7 +19236,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="D1:D13 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="F1 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19210,10 +19266,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19224,10 +19280,10 @@
         <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19238,10 +19294,10 @@
         <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -19263,7 +19319,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19613,7 +19669,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F1 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19645,10 +19701,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19659,10 +19715,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19676,7 +19732,7 @@
         <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19690,7 +19746,7 @@
         <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19704,7 +19760,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19718,7 +19774,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19743,7 +19799,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19775,10 +19831,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19789,10 +19845,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19806,7 +19862,7 @@
         <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19820,7 +19876,7 @@
         <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19834,7 +19890,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19848,7 +19904,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19873,7 +19929,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="D1:D13 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="F1 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19889,7 +19945,7 @@
         <v>377</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>141</v>
@@ -19897,162 +19953,162 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C18" s="12"/>
       <c r="H18" s="4"/>
@@ -20060,50 +20116,50 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="15"/>
@@ -20127,7 +20183,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D1:D13 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="F1 D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20140,10 +20196,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>141</v>
@@ -20151,107 +20207,107 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="15"/>
@@ -20263,7 +20319,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>141</v>
@@ -20273,20 +20329,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="15"/>
@@ -20342,7 +20398,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20374,10 +20430,10 @@
         <v>241</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20391,7 +20447,7 @@
         <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20405,7 +20461,7 @@
         <v>309</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20419,7 +20475,7 @@
         <v>311</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20456,7 +20512,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20488,10 +20544,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20502,10 +20558,10 @@
         <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20516,10 +20572,10 @@
         <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20530,10 +20586,10 @@
         <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20544,10 +20600,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20558,10 +20614,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20601,7 +20657,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="1" sqref="D1:D13 E34"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="1" sqref="F1 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20636,7 +20692,7 @@
         <v>313</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20647,10 +20703,10 @@
         <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20661,10 +20717,10 @@
         <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20704,7 +20760,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D1:D13 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F1 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20734,10 +20790,10 @@
         <v>243</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20748,10 +20804,10 @@
         <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20762,10 +20818,10 @@
         <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20779,7 +20835,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20793,7 +20849,7 @@
         <v>251</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -20815,7 +20871,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="F1 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20845,10 +20901,10 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20856,13 +20912,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20873,10 +20929,10 @@
         <v>230</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20887,10 +20943,10 @@
         <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20901,10 +20957,10 @@
         <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20918,7 +20974,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20932,7 +20988,7 @@
         <v>144</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20946,7 +21002,7 @@
         <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20957,10 +21013,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20971,10 +21027,10 @@
         <v>318</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21032,7 +21088,7 @@
   <dimension ref="A1:C1009"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="D1:D13 C15"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="F1 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21058,10 +21114,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21069,10 +21125,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21080,10 +21136,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21091,10 +21147,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21102,10 +21158,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21113,10 +21169,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21127,7 +21183,7 @@
         <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21138,7 +21194,7 @@
         <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24164,7 +24220,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="D1:D13 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F1 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24262,7 +24318,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D1:D13 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F1 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24313,7 +24369,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D13"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="48"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -964,13 +964,13 @@
     <t xml:space="preserve">+24V DC Brake power</t>
   </si>
   <si>
+    <t xml:space="preserve">+ Static brake</t>
+  </si>
+  <si>
     <t xml:space="preserve">VCCD</t>
   </si>
   <si>
     <t xml:space="preserve">+24V DC Brake diag. power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Static brake</t>
   </si>
   <si>
     <t xml:space="preserve">- Static brake</t>
@@ -3169,7 +3169,7 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I191" activeCellId="1" sqref="F1 I191"/>
+      <selection pane="topLeft" activeCell="I191" activeCellId="1" sqref="B4:C4 I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9247,7 +9247,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9405,7 +9405,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9563,7 +9563,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9693,7 +9693,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9823,7 +9823,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="F1 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B4:C4 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9936,7 +9936,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="F1 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="B4:C4 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10010,7 +10010,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10098,7 +10098,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10198,7 +10198,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="F1 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10286,7 +10286,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10388,7 +10388,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="F1 B52"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="B4:C4 B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13519,7 +13519,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13621,7 +13621,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="F1 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B4:C4 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13751,7 +13751,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13862,10 +13862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="F1 C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13909,10 +13909,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>279</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>274</v>
@@ -13923,7 +13923,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>280</v>
@@ -13945,6 +13945,10 @@
       <c r="D5" s="4" t="s">
         <v>274</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13965,7 +13969,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14065,7 +14069,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14137,7 +14141,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="F1 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B4:C4 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14267,7 +14271,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14453,7 +14457,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14536,7 +14540,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14666,7 +14670,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14779,7 +14783,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="F1 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B4:C4 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14990,7 +14994,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15091,7 +15095,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="F1 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B4:C4 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15193,7 +15197,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="F1 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="B4:C4 E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15295,7 +15299,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15397,7 +15401,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15499,7 +15503,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15582,7 +15586,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="F1 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B4:C4 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15749,7 +15753,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15849,7 +15853,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15949,7 +15953,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F1 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B4:C4 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16062,7 +16066,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="F1 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="B4:C4 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16221,7 +16225,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F1 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B4:C4 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16380,7 +16384,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O42" activeCellId="1" sqref="F1 O42"/>
+      <selection pane="topLeft" activeCell="O42" activeCellId="1" sqref="B4:C4 O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16475,7 +16479,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16588,7 +16592,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F1 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16720,7 +16724,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="1" sqref="F1 T15"/>
+      <selection pane="topLeft" activeCell="T15" activeCellId="1" sqref="B4:C4 T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16851,7 +16855,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="F1 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="B4:C4 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16982,7 +16986,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="F1 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="B4:C4 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17236,7 +17240,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B4:C4 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17488,8 +17492,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B4:C4 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17742,7 +17746,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="F1 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17808,7 +17812,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17983,7 +17987,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18197,7 +18201,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="F1 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="B4:C4 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18435,7 +18439,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="F1 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B4:C4 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18563,7 +18567,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="F1 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B4:C4 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18722,7 +18726,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18865,7 +18869,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19021,7 +19025,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19122,7 +19126,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="F1 I24"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="B4:C4 I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19236,7 +19240,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="F1 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19319,7 +19323,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19669,7 +19673,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="F1 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="B4:C4 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19799,7 +19803,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19929,7 +19933,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="F1 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20183,7 +20187,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="F1 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="B4:C4 D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20398,7 +20402,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F1 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20512,7 +20516,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F1 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20657,7 +20661,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="1" sqref="F1 E34"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="1" sqref="B4:C4 E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20760,7 +20764,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="F1 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B4:C4 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20871,7 +20875,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="F1 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B4:C4 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21088,7 +21092,7 @@
   <dimension ref="A1:C1009"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="F1 J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="B4:C4 J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24220,7 +24224,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="F1 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B4:C4 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24318,7 +24322,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F1 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B4:C4 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24369,7 +24373,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/en/Manual/source/tab/connectors.xlsx
+++ b/en/Manual/source/tab/connectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="rozcestnik" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,8 +22,8 @@
     <sheet name="X3_M1_6pin_BLZP" sheetId="12" state="visible" r:id="rId14"/>
     <sheet name="X4_M2_6pin_BLZP" sheetId="13" state="visible" r:id="rId15"/>
     <sheet name="X1_24V_5pin_Microlock" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="X3_DCbus_2pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="X3_M1_3pin_pressfit" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="X2_DCbus_2pin_pressfit" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="X2_M1_3pin_pressfit" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="X4_BR_4pin_Microlock" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="X2_DCbus_3pin_wago_2636" sheetId="18" state="visible" r:id="rId20"/>
     <sheet name="X3_M1_4pin_wago_2626" sheetId="19" state="visible" r:id="rId21"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="585">
   <si>
     <t xml:space="preserve">This is a workbook with source tables of TGZ/TGS connector descriptions in English. Each sheet corresponds to one unique connector type. Since connectors are often repeated within TGZ (typically those on the control board), they are only listed once. I.e. E.g. IO connector 22pin weidmuller B2CF is used over and over again, so it is only listed here once as "X8_IO_22pin_B2CF"</t>
   </si>
@@ -1390,10 +1390,16 @@
     <t xml:space="preserve">0V</t>
   </si>
   <si>
+    <t xml:space="preserve">PT1000_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">0~5V</t>
   </si>
   <si>
-    <t xml:space="preserve">HALL_IN1</t>
+    <t xml:space="preserve">PT1000_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALL1</t>
   </si>
   <si>
     <t xml:space="preserve">Hall 1 signal</t>
@@ -1402,31 +1408,31 @@
     <t xml:space="preserve">5~30V</t>
   </si>
   <si>
-    <t xml:space="preserve">GNDHALL</t>
+    <t xml:space="preserve">HGND</t>
   </si>
   <si>
     <t xml:space="preserve">Hall common ground</t>
   </si>
   <si>
-    <t xml:space="preserve">HALL_IN2</t>
+    <t xml:space="preserve">HALL2</t>
   </si>
   <si>
     <t xml:space="preserve">Hall 2 signal</t>
   </si>
   <si>
-    <t xml:space="preserve">VCCHALL</t>
+    <t xml:space="preserve">VHO</t>
   </si>
   <si>
     <t xml:space="preserve">Hall output power (fused)</t>
   </si>
   <si>
-    <t xml:space="preserve">HALL_IN3</t>
+    <t xml:space="preserve">HALL3</t>
   </si>
   <si>
     <t xml:space="preserve">Hall 3 signal</t>
   </si>
   <si>
-    <t xml:space="preserve">VCCHALL_IN</t>
+    <t xml:space="preserve">VHI</t>
   </si>
   <si>
     <t xml:space="preserve">Hall input power</t>
@@ -2230,7 +2236,7 @@
             <v>#X10_CAN_4pin_B2CF</v>
           </cell>
           <cell r="B4" t="str">
-            <v>B2CF 3.50/04/180 SN OR BX</v>
+            <v>B2CF 3.50/04/180 SN OR BX </v>
           </cell>
           <cell r="C4" t="str">
             <v>Weidmüller</v>
@@ -2244,7 +2250,7 @@
             <v>#X6_FB1_8pin_B2CF</v>
           </cell>
           <cell r="B5" t="str">
-            <v>B2CF 3.50/08/180 SN OR BX</v>
+            <v>B2CF 3.50/08/180 SN OR BX </v>
           </cell>
           <cell r="C5" t="str">
             <v>Weidmüller</v>
@@ -2258,7 +2264,7 @@
             <v>#X7_FB2_8pin_B2CF</v>
           </cell>
           <cell r="B6" t="str">
-            <v>B2CF 3.50/08/180 SN OR BX</v>
+            <v>B2CF 3.50/08/180 SN OR BX </v>
           </cell>
           <cell r="C6" t="str">
             <v>Weidmüller</v>
@@ -2272,7 +2278,7 @@
             <v>#X5_FBE_12pin_B2CF</v>
           </cell>
           <cell r="B7" t="str">
-            <v>B2CF 3.50/12/180 SN OR BX</v>
+            <v>B2CF 3.50/12/180 SN OR BX </v>
           </cell>
           <cell r="C7" t="str">
             <v>Weidmüller</v>
@@ -2286,7 +2292,7 @@
             <v>#X1_24V_5pin_BCZ</v>
           </cell>
           <cell r="B8" t="str">
-            <v>BCZ 3.81/05/180 SN OR BX</v>
+            <v>BCZ 3.81/05/180 SN OR BX </v>
           </cell>
           <cell r="C8" t="str">
             <v>Weidmüller</v>
@@ -2300,7 +2306,7 @@
             <v>#X3_M1_6pin_BLZP</v>
           </cell>
           <cell r="B9" t="str">
-            <v>BLZP 5.08HC/06/180 SN OR BX</v>
+            <v>BLZP 5.08HC/06/180 SN OR BX </v>
           </cell>
           <cell r="C9" t="str">
             <v>Weidmüller</v>
@@ -2314,7 +2320,7 @@
             <v>#X4_M2_6pin_BLZP</v>
           </cell>
           <cell r="B10" t="str">
-            <v>BLZP 5.08HC/06/180 SN OR BX</v>
+            <v>BLZP 5.08HC/06/180 SN OR BX </v>
           </cell>
           <cell r="C10" t="str">
             <v>Weidmüller</v>
@@ -2328,7 +2334,7 @@
             <v>#X2_48_DC_1778065</v>
           </cell>
           <cell r="B11" t="str">
-            <v>PC 5/ 2-STCL1-7,62</v>
+            <v>PC 5/ 2-STCL1-7,62 </v>
           </cell>
           <cell r="C11" t="str">
             <v>Phoenix Contact</v>
@@ -2342,7 +2348,7 @@
             <v>#X4_M1_6pin_SLS</v>
           </cell>
           <cell r="B12" t="str">
-            <v>SLS 5.08/06/180FI SN OR BX</v>
+            <v>SLS 5.08/06/180FI SN OR BX </v>
           </cell>
           <cell r="C12" t="str">
             <v>Weidmüller</v>
@@ -2356,7 +2362,7 @@
             <v>#X2_PWR_10pin_BLZP</v>
           </cell>
           <cell r="B13" t="str">
-            <v>BLZP 5.08HC/10/180 SN OR BX</v>
+            <v>BLZP 5.08HC/10/180 SN OR BX </v>
           </cell>
           <cell r="C13" t="str">
             <v>Weidmüller</v>
@@ -2370,7 +2376,7 @@
             <v>#X4_M1_6pin_BLF</v>
           </cell>
           <cell r="B14" t="str">
-            <v>BLF 7.62HP/06/180F</v>
+            <v>BLF 7.62HP/06/180F </v>
           </cell>
           <cell r="C14" t="str">
             <v>Weidmüller</v>
@@ -2384,7 +2390,7 @@
             <v>#X2_PWR_12pin_BLZ</v>
           </cell>
           <cell r="B15" t="str">
-            <v>BLZ 7.62HP/12/180F</v>
+            <v>BLZ 7.62HP/12/180F </v>
           </cell>
           <cell r="C15" t="str">
             <v>Weidmüller</v>
@@ -2398,7 +2404,7 @@
             <v>#X3_M1_4pin_wago_2636</v>
           </cell>
           <cell r="B16" t="str">
-            <v>PC 5/ 2-STCL1-7,62</v>
+            <v>PC 5/ 2-STCL1-7,62 </v>
           </cell>
           <cell r="C16" t="str">
             <v>Phoenix Contact</v>
@@ -2412,7 +2418,7 @@
             <v>#X4_M2_4pin_wago_2636</v>
           </cell>
           <cell r="B17" t="str">
-            <v>PC 5/ 2-STCL1-7,62</v>
+            <v>PC 5/ 2-STCL1-7,62 </v>
           </cell>
           <cell r="C17" t="str">
             <v>Phoenix Contact</v>
@@ -2468,7 +2474,7 @@
             <v>#X1_ACIN_PC5</v>
           </cell>
           <cell r="B21" t="str">
-            <v>PC 5/ 8-STCL1-7,62</v>
+            <v>PC 5/ 8-STCL1-7,62 </v>
           </cell>
           <cell r="C21" t="str">
             <v>Phoenix Contact</v>
@@ -2482,7 +2488,7 @@
             <v>#X2_DC_8pin_PC5</v>
           </cell>
           <cell r="B22" t="str">
-            <v>PC 5/ 8-STCL1-7,62</v>
+            <v>PC 5/ 8-STCL1-7,62 </v>
           </cell>
           <cell r="C22" t="str">
             <v>Phoenix Contact</v>
@@ -2496,7 +2502,7 @@
             <v>#X3_DO_4pin_BCZ</v>
           </cell>
           <cell r="B23" t="str">
-            <v>BCZ 3.81/04/180 SN BK BX</v>
+            <v>BCZ 3.81/04/180 SN BK BX </v>
           </cell>
           <cell r="C23" t="str">
             <v>Weidmüller</v>
@@ -2510,7 +2516,7 @@
             <v>#X3_24V_BLF_2_5</v>
           </cell>
           <cell r="B24" t="str">
-            <v>BLF 2.50/04/180 SN OR BX</v>
+            <v>BLF 2.50/04/180 SN OR BX </v>
           </cell>
           <cell r="C24" t="str">
             <v>Weidmüller</v>
@@ -2524,7 +2530,7 @@
             <v>#X10_CAN_4pin_B2CF</v>
           </cell>
           <cell r="B25" t="str">
-            <v>BCZ 3.81/04/180 SN OR BX</v>
+            <v>BCZ 3.81/04/180 SN OR BX </v>
           </cell>
           <cell r="C25" t="str">
             <v>Weidmüller</v>
@@ -2538,7 +2544,7 @@
             <v>#X5_DI_10pin_B2CF</v>
           </cell>
           <cell r="B26" t="str">
-            <v>B2CF 3.50/10/180 SN OR BX</v>
+            <v>B2CF 3.50/10/180 SN OR BX </v>
           </cell>
           <cell r="C26" t="str">
             <v>Weidmüller</v>
@@ -2552,7 +2558,7 @@
             <v>#X10_DO_10pin_B2CF</v>
           </cell>
           <cell r="B27" t="str">
-            <v>B2CF 3.50/10/180 SN OR BX</v>
+            <v>B2CF 3.50/10/180 SN OR BX </v>
           </cell>
           <cell r="C27" t="str">
             <v>Weidmüller</v>
@@ -2566,7 +2572,7 @@
             <v>#X1_24V_5pin_BCZ_TGM</v>
           </cell>
           <cell r="B28" t="str">
-            <v>BCZ 3.81/05/180 SN OR BX</v>
+            <v>BCZ 3.81/05/180 SN OR BX </v>
           </cell>
           <cell r="C28" t="str">
             <v>Weidmüller</v>
@@ -2580,7 +2586,7 @@
             <v>#X2_320_DC_1778078</v>
           </cell>
           <cell r="B29" t="str">
-            <v>PC 5/ 3-STCL1-7,62</v>
+            <v>PC 5/ 3-STCL1-7,62 </v>
           </cell>
           <cell r="C29" t="str">
             <v>Phoenix Contact</v>
@@ -2594,7 +2600,7 @@
             <v>#X6_FB1_8pin_B2CF_TGM</v>
           </cell>
           <cell r="B30" t="str">
-            <v>BCZ 3.81/08/180 SN OR BX</v>
+            <v>BCZ 3.81/08/180 SN OR BX </v>
           </cell>
           <cell r="C30" t="str">
             <v>Weidmüller</v>
@@ -2608,7 +2614,7 @@
             <v>#X7_FB2_8pin_B2CF_TGM</v>
           </cell>
           <cell r="B31" t="str">
-            <v>BCZ 3.81/08/180 SN OR BX</v>
+            <v>BCZ 3.81/08/180 SN OR BX </v>
           </cell>
           <cell r="C31" t="str">
             <v>Weidmüller</v>
@@ -2622,7 +2628,7 @@
             <v>#X5_FBE_12pin_B2CF_TGM</v>
           </cell>
           <cell r="B32" t="str">
-            <v>BCZ 3.81/12/180 SN OR BX</v>
+            <v>BCZ 3.81/12/180 SN OR BX </v>
           </cell>
           <cell r="C32" t="str">
             <v>Weidmüller</v>
@@ -2748,7 +2754,7 @@
             <v>#X2_560_DC_3pin_BLZ__7_62</v>
           </cell>
           <cell r="B41" t="str">
-            <v>BLZ 7.62HP/03/180LR SN BK BX</v>
+            <v>BLZ 7.62HP/03/180LR SN BK BX </v>
           </cell>
           <cell r="C41" t="str">
             <v>Weidmüller</v>
@@ -2762,7 +2768,7 @@
             <v>#X4_ACIN_4pin_TGS560_25</v>
           </cell>
           <cell r="B42" t="str">
-            <v>BVZ 7.62HP/04/180F SN BK BX</v>
+            <v>BVZ 7.62HP/04/180F SN BK BX </v>
           </cell>
           <cell r="C42" t="str">
             <v>Weidmüller</v>
@@ -2776,7 +2782,7 @@
             <v>#X1_DC_6pin_TGS560_25</v>
           </cell>
           <cell r="B43" t="str">
-            <v>BVZ 7.62HP/06/180F SN BK BX</v>
+            <v>BVZ 7.62HP/06/180F SN BK BX </v>
           </cell>
           <cell r="C43" t="str">
             <v>Weidmüller</v>
@@ -2790,7 +2796,7 @@
             <v>#X5_RBR_3pin_TGS560_25</v>
           </cell>
           <cell r="B44" t="str">
-            <v>BLZ 7.62HP/03/180F SN BK BX</v>
+            <v>BLZ 7.62HP/03/180F SN BK BX </v>
           </cell>
           <cell r="C44" t="str">
             <v>Weidmüller</v>
@@ -2804,7 +2810,7 @@
             <v>#S1_TGS560_DIP</v>
           </cell>
           <cell r="B45" t="str">
-            <v>DS03-254-04BE</v>
+            <v>DS03-254-04BE </v>
           </cell>
           <cell r="C45" t="str">
             <v>Same Sky</v>
@@ -2818,7 +2824,7 @@
             <v>#X4_TGS560_24V_5pin_BCZ</v>
           </cell>
           <cell r="B46" t="str">
-            <v>BCZ 3.81/05/180F SN OR BX</v>
+            <v>BCZ 3.81/05/180F SN OR BX </v>
           </cell>
           <cell r="C46" t="str">
             <v>Weidmüller</v>
@@ -2860,7 +2866,7 @@
             <v>#XBR_BR_6pin_BLF</v>
           </cell>
           <cell r="B49" t="str">
-            <v>BLF 5.00HC/06/180F SN OR BX          </v>
+            <v>BLF 5.00HC/06/180F SN OR BX           </v>
           </cell>
           <cell r="C49" t="str">
             <v>Weidmüller</v>
@@ -3169,7 +3175,7 @@
   <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I191" activeCellId="1" sqref="B4:C4 I191"/>
+      <selection pane="topLeft" activeCell="I191" activeCellId="0" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9247,7 +9253,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9405,7 +9411,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9563,7 +9569,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9693,7 +9699,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9823,7 +9829,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B4:C4 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9936,7 +9942,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="B4:C4 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10009,8 +10015,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10098,7 +10104,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10198,7 +10204,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="B4:C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10286,7 +10292,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10388,7 +10394,7 @@
   <dimension ref="A1:H260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="1" sqref="B4:C4 B52"/>
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13519,7 +13525,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13621,7 +13627,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B4:C4 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13751,7 +13757,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13862,10 +13868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13945,10 +13951,6 @@
       <c r="D5" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13969,7 +13971,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14069,7 +14071,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14141,7 +14143,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B4:C4 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14271,7 +14273,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14457,7 +14459,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14540,7 +14542,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14670,7 +14672,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14783,7 +14785,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="B4:C4 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14994,7 +14996,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15095,7 +15097,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="B4:C4 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15197,7 +15199,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="1" sqref="B4:C4 E32"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15299,7 +15301,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15401,7 +15403,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15503,7 +15505,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15586,7 +15588,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B4:C4 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15753,7 +15755,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15853,7 +15855,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15953,7 +15955,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B4:C4 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16066,7 +16068,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="B4:C4 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16225,7 +16227,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B4:C4 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16384,7 +16386,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O42" activeCellId="1" sqref="B4:C4 O42"/>
+      <selection pane="topLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16479,7 +16481,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16592,7 +16594,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B4:C4 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16724,7 +16726,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="1" sqref="B4:C4 T15"/>
+      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16855,7 +16857,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="B4:C4 C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16986,7 +16988,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="B4:C4 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17240,7 +17242,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B4:C4 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17493,7 +17495,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="B4:C4 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17746,7 +17748,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B4:C4 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17812,7 +17814,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17987,7 +17989,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18044,13 +18046,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>407</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18058,7 +18060,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>407</v>
@@ -18072,13 +18074,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18086,7 +18088,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>410</v>
@@ -18100,13 +18102,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18114,10 +18116,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>419</v>
@@ -18128,13 +18130,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18142,13 +18144,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18156,13 +18158,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18170,13 +18172,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18201,7 +18203,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="B4:C4 C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18230,7 +18232,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18241,7 +18243,7 @@
         <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18252,7 +18254,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18263,7 +18265,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18274,7 +18276,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18285,7 +18287,7 @@
         <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18296,7 +18298,7 @@
         <v>186</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18307,7 +18309,7 @@
         <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18315,10 +18317,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18326,10 +18328,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18337,10 +18339,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18348,10 +18350,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18362,7 +18364,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18373,7 +18375,7 @@
         <v>174</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18384,7 +18386,7 @@
         <v>172</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18395,7 +18397,7 @@
         <v>170</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18406,7 +18408,7 @@
         <v>168</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18417,7 +18419,7 @@
         <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -18439,7 +18441,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="B4:C4 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18465,10 +18467,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18476,10 +18478,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18487,10 +18489,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18498,10 +18500,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18509,10 +18511,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18520,10 +18522,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18531,10 +18533,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18542,10 +18544,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -18567,7 +18569,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="B4:C4 C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18593,10 +18595,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18604,10 +18606,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18618,7 +18620,7 @@
         <v>398</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18629,7 +18631,7 @@
         <v>397</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18637,10 +18639,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18651,7 +18653,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18659,10 +18661,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18670,10 +18672,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18684,7 +18686,7 @@
         <v>397</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18695,7 +18697,7 @@
         <v>398</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18726,7 +18728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18752,10 +18754,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18763,10 +18765,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18774,10 +18776,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18785,10 +18787,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18796,10 +18798,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18807,10 +18809,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18818,10 +18820,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18829,10 +18831,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18869,7 +18871,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18901,10 +18903,10 @@
         <v>316</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18915,10 +18917,10 @@
         <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18932,7 +18934,7 @@
         <v>313</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18946,7 +18948,7 @@
         <v>307</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18960,7 +18962,7 @@
         <v>309</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18974,7 +18976,7 @@
         <v>311</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18985,10 +18987,10 @@
         <v>241</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19025,7 +19027,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19054,10 +19056,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>324</v>
@@ -19068,10 +19070,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>324</v>
@@ -19126,7 +19128,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="1" sqref="B4:C4 I24"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19156,13 +19158,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19170,13 +19172,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19187,10 +19189,10 @@
         <v>147</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19204,7 +19206,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19218,7 +19220,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -19240,7 +19242,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="B4:C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19270,10 +19272,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19284,10 +19286,10 @@
         <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19298,10 +19300,10 @@
         <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -19323,7 +19325,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19673,7 +19675,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="B4:C4 D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19705,10 +19707,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19719,10 +19721,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19736,7 +19738,7 @@
         <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19750,7 +19752,7 @@
         <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19764,7 +19766,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19778,7 +19780,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19803,7 +19805,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19835,10 +19837,10 @@
         <v>236</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19849,10 +19851,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19866,7 +19868,7 @@
         <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19880,7 +19882,7 @@
         <v>244</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19894,7 +19896,7 @@
         <v>246</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19908,7 +19910,7 @@
         <v>248</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19933,7 +19935,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19949,7 +19951,7 @@
         <v>377</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>141</v>
@@ -19957,162 +19959,162 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C18" s="12"/>
       <c r="H18" s="4"/>
@@ -20120,50 +20122,50 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="15"/>
@@ -20187,7 +20189,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="B4:C4 D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20200,10 +20202,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>141</v>
@@ -20211,107 +20213,107 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="15"/>
@@ -20323,7 +20325,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>141</v>
@@ -20333,20 +20335,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="15"/>
@@ -20402,7 +20404,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B4:C4 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20434,10 +20436,10 @@
         <v>241</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20451,7 +20453,7 @@
         <v>307</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20465,7 +20467,7 @@
         <v>309</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20479,7 +20481,7 @@
         <v>311</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20516,7 +20518,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B4:C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20548,10 +20550,10 @@
         <v>155</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20562,10 +20564,10 @@
         <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20576,10 +20578,10 @@
         <v>241</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20590,10 +20592,10 @@
         <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20604,10 +20606,10 @@
         <v>157</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20618,10 +20620,10 @@
         <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20661,7 +20663,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="1" sqref="B4:C4 E34"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20696,7 +20698,7 @@
         <v>313</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20707,10 +20709,10 @@
         <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20721,10 +20723,10 @@
         <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20764,7 +20766,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="B4:C4 C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20794,10 +20796,10 @@
         <v>243</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20808,10 +20810,10 @@
         <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20822,10 +20824,10 @@
         <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20839,7 +20841,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20853,7 +20855,7 @@
         <v>251</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -20875,7 +20877,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="B4:C4 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20905,10 +20907,10 @@
         <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20916,13 +20918,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20933,10 +20935,10 @@
         <v>230</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20947,10 +20949,10 @@
         <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20961,10 +20963,10 @@
         <v>151</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20978,7 +20980,7 @@
         <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20992,7 +20994,7 @@
         <v>144</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21006,7 +21008,7 @@
         <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21017,10 +21019,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21031,10 +21033,10 @@
         <v>318</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21092,7 +21094,7 @@
   <dimension ref="A1:C1009"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="B4:C4 J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21118,10 +21120,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21129,10 +21131,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21140,10 +21142,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21151,10 +21153,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21162,10 +21164,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21173,10 +21175,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21187,7 +21189,7 @@
         <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21198,7 +21200,7 @@
         <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24224,7 +24226,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="B4:C4 C11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24322,7 +24324,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B4:C4 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24373,7 +24375,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B4:C4 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
